--- a/server/fenix/media/price.xlsx
+++ b/server/fenix/media/price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B8C26-6083-4054-A9D5-3F93E7A9D0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A4FF6-F3BC-4C02-9728-20D652D87714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="667">
   <si>
     <t>Прием врача и амбулаторные процедуры</t>
   </si>
@@ -2304,6 +2304,15 @@
   </si>
   <si>
     <t>Пластические операции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прием кардиолога                               </t>
+  </si>
+  <si>
+    <t>Повторный прием кардиолога</t>
+  </si>
+  <si>
+    <t>Кардиология</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3127,18 +3136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3256,6 +3253,33 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3269,12 +3293,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4235,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J870"/>
+  <dimension ref="A1:J877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="F863" sqref="F863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4252,12 +4270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="29.45" customHeight="1">
@@ -4267,10 +4285,10 @@
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="137"/>
+      <c r="D2" s="132"/>
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" ht="97.9" customHeight="1">
@@ -4310,10 +4328,10 @@
       <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="88" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="26"/>
@@ -4340,7 +4358,7 @@
       <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="89" t="s">
         <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -4364,13 +4382,13 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="90" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="89" t="s">
         <v>138</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -4400,7 +4418,7 @@
       <c r="B11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="89" t="s">
         <v>547</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -4430,7 +4448,7 @@
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="89" t="s">
         <v>311</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4460,7 +4478,7 @@
       <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="89" t="s">
         <v>524</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4490,7 +4508,7 @@
       <c r="B17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="89" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4520,7 +4538,7 @@
       <c r="B19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="89" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4550,7 +4568,7 @@
       <c r="B21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="89" t="s">
         <v>524</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -4580,7 +4598,7 @@
       <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="89" t="s">
         <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -4595,7 +4613,7 @@
       <c r="B24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="89" t="s">
         <v>548</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -4619,7 +4637,7 @@
       <c r="B26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="89" t="s">
         <v>542</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -4664,7 +4682,7 @@
       <c r="B29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="89" t="s">
         <v>133</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -4694,7 +4712,7 @@
       <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="89" t="s">
         <v>525</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -4724,7 +4742,7 @@
       <c r="B33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="89" t="s">
         <v>451</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -4754,7 +4772,7 @@
       <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="89" t="s">
         <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4784,7 +4802,7 @@
       <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="89" t="s">
         <v>142</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -4814,7 +4832,7 @@
       <c r="B39" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="89" t="s">
         <v>524</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -4844,7 +4862,7 @@
       <c r="B41" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="89" t="s">
         <v>133</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -4874,7 +4892,7 @@
       <c r="B43" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="89" t="s">
         <v>340</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -4904,7 +4922,7 @@
       <c r="B45" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="93"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="3"/>
       <c r="E45" s="26"/>
     </row>
@@ -4928,7 +4946,7 @@
       <c r="B47" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="3"/>
       <c r="E47" s="26"/>
     </row>
@@ -4950,7 +4968,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="22"/>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="89" t="s">
         <v>527</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -4972,13 +4990,13 @@
       <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="92" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="93"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="13"/>
       <c r="E51" s="26"/>
     </row>
@@ -5000,7 +5018,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="22"/>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="89" t="s">
         <v>523</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -5028,7 +5046,7 @@
       <c r="B55" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="89" t="s">
         <v>451</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -5054,7 +5072,7 @@
       <c r="B57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="89" t="s">
         <v>542</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -5084,7 +5102,7 @@
       <c r="B59" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="89" t="s">
         <v>542</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5108,13 +5126,13 @@
       <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="91" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="89" t="s">
         <v>150</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -5138,13 +5156,13 @@
       <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="96" t="s">
+      <c r="A63" s="92" t="s">
         <v>449</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="89" t="s">
         <v>528</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -5168,12 +5186,12 @@
       <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" s="20" customFormat="1" ht="45" customHeight="1">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="142"/>
       <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -5183,10 +5201,10 @@
       <c r="B66" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="137"/>
+      <c r="D66" s="132"/>
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" s="20" customFormat="1" ht="30" customHeight="1">
@@ -5647,12 +5665,12 @@
       <c r="E99" s="19"/>
     </row>
     <row r="100" spans="1:5" s="20" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A100" s="131" t="s">
+      <c r="A100" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="132"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="133"/>
+      <c r="B100" s="137"/>
+      <c r="C100" s="137"/>
+      <c r="D100" s="138"/>
       <c r="E100" s="19"/>
     </row>
     <row r="101" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -5662,14 +5680,14 @@
       <c r="B101" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="136" t="s">
+      <c r="C101" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="137"/>
+      <c r="D101" s="132"/>
       <c r="E101" s="19"/>
     </row>
     <row r="102" spans="1:5" s="20" customFormat="1" ht="48" customHeight="1">
-      <c r="A102" s="94" t="s">
+      <c r="A102" s="90" t="s">
         <v>621</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -5681,7 +5699,7 @@
       <c r="D102" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="125"/>
+      <c r="E102" s="121"/>
     </row>
     <row r="103" spans="1:5" s="20" customFormat="1" ht="112.5" customHeight="1">
       <c r="A103" s="21" t="s">
@@ -5696,7 +5714,7 @@
       <c r="D103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="125"/>
+      <c r="E103" s="121"/>
     </row>
     <row r="104" spans="1:5" s="20" customFormat="1" ht="135.75" customHeight="1">
       <c r="A104" s="21" t="s">
@@ -5711,7 +5729,7 @@
       <c r="D104" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="125"/>
+      <c r="E104" s="121"/>
     </row>
     <row r="105" spans="1:5" s="20" customFormat="1" ht="162.75" customHeight="1">
       <c r="A105" s="21" t="s">
@@ -5726,7 +5744,7 @@
       <c r="D105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="125"/>
+      <c r="E105" s="121"/>
     </row>
     <row r="106" spans="1:5" s="20" customFormat="1" ht="178.5" customHeight="1">
       <c r="A106" s="21" t="s">
@@ -5741,7 +5759,7 @@
       <c r="D106" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E106" s="125"/>
+      <c r="E106" s="121"/>
     </row>
     <row r="107" spans="1:5" s="20" customFormat="1" ht="147" customHeight="1">
       <c r="A107" s="21" t="s">
@@ -5756,7 +5774,7 @@
       <c r="D107" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="125"/>
+      <c r="E107" s="121"/>
     </row>
     <row r="108" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
       <c r="A108" s="33" t="s">
@@ -5780,10 +5798,10 @@
       <c r="B109" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="140" t="s">
+      <c r="C109" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="141"/>
+      <c r="D109" s="144"/>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -5933,12 +5951,12 @@
       <c r="E119" s="19"/>
     </row>
     <row r="120" spans="1:5" s="20" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A120" s="131" t="s">
+      <c r="A120" s="136" t="s">
         <v>662</v>
       </c>
-      <c r="B120" s="142"/>
-      <c r="C120" s="142"/>
-      <c r="D120" s="143"/>
+      <c r="B120" s="145"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="146"/>
       <c r="E120" s="19"/>
     </row>
     <row r="121" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -5948,10 +5966,10 @@
       <c r="B121" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="136" t="s">
+      <c r="C121" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="137"/>
+      <c r="D121" s="132"/>
       <c r="E121" s="19"/>
     </row>
     <row r="122" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -6006,7 +6024,7 @@
       <c r="B125" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="105">
+      <c r="C125" s="101">
         <v>1000</v>
       </c>
       <c r="D125" s="13" t="s">
@@ -6021,7 +6039,7 @@
       <c r="B126" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="123">
+      <c r="C126" s="119">
         <v>1000</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -6036,7 +6054,7 @@
       <c r="B127" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C127" s="105">
+      <c r="C127" s="101">
         <v>1500</v>
       </c>
       <c r="D127" s="13" t="s">
@@ -6051,7 +6069,7 @@
       <c r="B128" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="123">
+      <c r="C128" s="119">
         <v>1000</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -6066,7 +6084,7 @@
       <c r="B129" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="105">
+      <c r="C129" s="101">
         <v>1000</v>
       </c>
       <c r="D129" s="13" t="s">
@@ -6081,7 +6099,7 @@
       <c r="B130" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C130" s="123">
+      <c r="C130" s="119">
         <v>1000</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -6096,7 +6114,7 @@
       <c r="B131" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="105">
+      <c r="C131" s="101">
         <v>1000</v>
       </c>
       <c r="D131" s="13" t="s">
@@ -6111,7 +6129,7 @@
       <c r="B132" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="123">
+      <c r="C132" s="119">
         <v>1300</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -6126,7 +6144,7 @@
       <c r="B133" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="105">
+      <c r="C133" s="101">
         <v>1800</v>
       </c>
       <c r="D133" s="13" t="s">
@@ -6141,7 +6159,7 @@
       <c r="B134" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C134" s="123">
+      <c r="C134" s="119">
         <v>1000</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -6150,13 +6168,13 @@
       <c r="E134" s="19"/>
     </row>
     <row r="135" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="96" t="s">
+      <c r="A135" s="92" t="s">
         <v>151</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="105">
+      <c r="C135" s="101">
         <v>1000</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -6171,7 +6189,7 @@
       <c r="B136" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="123">
+      <c r="C136" s="119">
         <v>1000</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -6216,7 +6234,7 @@
       <c r="B139" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C139" s="126">
+      <c r="C139" s="122">
         <v>2500</v>
       </c>
       <c r="D139" s="13" t="s">
@@ -6225,12 +6243,12 @@
       <c r="E139" s="19"/>
     </row>
     <row r="140" spans="1:5" s="20" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A140" s="131" t="s">
+      <c r="A140" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="B140" s="134"/>
-      <c r="C140" s="134"/>
-      <c r="D140" s="135"/>
+      <c r="B140" s="139"/>
+      <c r="C140" s="139"/>
+      <c r="D140" s="140"/>
       <c r="E140" s="19"/>
     </row>
     <row r="141" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -6240,10 +6258,10 @@
       <c r="B141" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="136" t="s">
+      <c r="C141" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="137"/>
+      <c r="D141" s="132"/>
       <c r="E141" s="19"/>
     </row>
     <row r="142" spans="1:5" s="20" customFormat="1" ht="83.25" customHeight="1">
@@ -6340,7 +6358,7 @@
       <c r="E148" s="19"/>
     </row>
     <row r="149" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="99" t="s">
+      <c r="A149" s="95" t="s">
         <v>554</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -6370,7 +6388,7 @@
       <c r="E150" s="19"/>
     </row>
     <row r="151" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="99" t="s">
+      <c r="A151" s="95" t="s">
         <v>555</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -6470,18 +6488,18 @@
     </row>
     <row r="158" spans="1:5" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A158" s="33"/>
-      <c r="B158" s="97"/>
-      <c r="C158" s="98"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="94"/>
       <c r="D158" s="3"/>
       <c r="E158" s="19"/>
     </row>
     <row r="159" spans="1:5" s="20" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A159" s="131" t="s">
+      <c r="A159" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="142"/>
-      <c r="C159" s="142"/>
-      <c r="D159" s="143"/>
+      <c r="B159" s="145"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="146"/>
       <c r="E159" s="19"/>
     </row>
     <row r="160" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -6491,10 +6509,10 @@
       <c r="B160" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="136" t="s">
+      <c r="C160" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="137"/>
+      <c r="D160" s="132"/>
       <c r="E160" s="19"/>
     </row>
     <row r="161" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -6605,7 +6623,7 @@
       <c r="A169" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B169" s="100"/>
+      <c r="B169" s="96"/>
       <c r="C169" s="9">
         <v>12450</v>
       </c>
@@ -6631,7 +6649,7 @@
       <c r="A171" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="100"/>
+      <c r="B171" s="96"/>
       <c r="C171" s="9">
         <v>16750</v>
       </c>
@@ -6667,10 +6685,10 @@
       <c r="E173" s="19"/>
     </row>
     <row r="174" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="102" t="s">
+      <c r="A174" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B174" s="107"/>
+      <c r="B174" s="103"/>
       <c r="C174" s="9">
         <v>12620</v>
       </c>
@@ -6693,10 +6711,10 @@
       <c r="E175" s="19"/>
     </row>
     <row r="176" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="102" t="s">
+      <c r="A176" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B176" s="107"/>
+      <c r="B176" s="103"/>
       <c r="C176" s="9">
         <v>17420</v>
       </c>
@@ -6793,10 +6811,10 @@
       <c r="E183" s="19"/>
     </row>
     <row r="184" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A184" s="102" t="s">
+      <c r="A184" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B184" s="107"/>
+      <c r="B184" s="103"/>
       <c r="C184" s="9">
         <v>12620</v>
       </c>
@@ -6819,10 +6837,10 @@
       <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A186" s="102" t="s">
+      <c r="A186" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B186" s="107"/>
+      <c r="B186" s="103"/>
       <c r="C186" s="9">
         <v>17420</v>
       </c>
@@ -6970,7 +6988,7 @@
       <c r="A198" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B198" s="101"/>
+      <c r="B198" s="97"/>
       <c r="C198" s="9">
         <v>18300</v>
       </c>
@@ -6991,10 +7009,10 @@
       <c r="E199" s="19"/>
     </row>
     <row r="200" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A200" s="102" t="s">
+      <c r="A200" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B200" s="101"/>
+      <c r="B200" s="97"/>
       <c r="C200" s="9">
         <v>16950</v>
       </c>
@@ -7017,10 +7035,10 @@
       <c r="E201" s="19"/>
     </row>
     <row r="202" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A202" s="102" t="s">
+      <c r="A202" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B202" s="101"/>
+      <c r="B202" s="97"/>
       <c r="C202" s="9">
         <v>24350</v>
       </c>
@@ -7043,10 +7061,10 @@
       <c r="E203" s="19"/>
     </row>
     <row r="204" spans="1:5" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="A204" s="96" t="s">
+      <c r="A204" s="92" t="s">
         <v>562</v>
       </c>
-      <c r="B204" s="100" t="s">
+      <c r="B204" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C204" s="9"/>
@@ -7070,7 +7088,7 @@
       <c r="A206" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B206" s="101"/>
+      <c r="B206" s="97"/>
       <c r="C206" s="9">
         <v>10000</v>
       </c>
@@ -7096,7 +7114,7 @@
       <c r="A208" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B208" s="101"/>
+      <c r="B208" s="97"/>
       <c r="C208" s="9">
         <v>15650</v>
       </c>
@@ -7117,10 +7135,10 @@
       <c r="E209" s="19"/>
     </row>
     <row r="210" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A210" s="102" t="s">
+      <c r="A210" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B210" s="101"/>
+      <c r="B210" s="97"/>
       <c r="C210" s="9">
         <v>16100</v>
       </c>
@@ -7143,10 +7161,10 @@
       <c r="E211" s="19"/>
     </row>
     <row r="212" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A212" s="102" t="s">
+      <c r="A212" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B212" s="101"/>
+      <c r="B212" s="97"/>
       <c r="C212" s="9">
         <v>20150</v>
       </c>
@@ -7169,10 +7187,10 @@
       <c r="E213" s="19"/>
     </row>
     <row r="214" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A214" s="96" t="s">
+      <c r="A214" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="B214" s="100" t="s">
+      <c r="B214" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="9"/>
@@ -7196,7 +7214,7 @@
       <c r="A216" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B216" s="101"/>
+      <c r="B216" s="97"/>
       <c r="C216" s="9">
         <v>9980</v>
       </c>
@@ -7222,7 +7240,7 @@
       <c r="A218" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B218" s="101"/>
+      <c r="B218" s="97"/>
       <c r="C218" s="9">
         <v>14130</v>
       </c>
@@ -7243,10 +7261,10 @@
       <c r="E219" s="19"/>
     </row>
     <row r="220" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A220" s="102" t="s">
+      <c r="A220" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B220" s="101"/>
+      <c r="B220" s="97"/>
       <c r="C220" s="9">
         <v>14250</v>
       </c>
@@ -7269,10 +7287,10 @@
       <c r="E221" s="19"/>
     </row>
     <row r="222" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A222" s="102" t="s">
+      <c r="A222" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B222" s="101"/>
+      <c r="B222" s="97"/>
       <c r="C222" s="9">
         <v>18250</v>
       </c>
@@ -7295,10 +7313,10 @@
       <c r="E223" s="19"/>
     </row>
     <row r="224" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A224" s="96" t="s">
+      <c r="A224" s="92" t="s">
         <v>563</v>
       </c>
-      <c r="B224" s="100" t="s">
+      <c r="B224" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C224" s="9"/>
@@ -7322,7 +7340,7 @@
       <c r="A226" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B226" s="101"/>
+      <c r="B226" s="97"/>
       <c r="C226" s="9">
         <v>16850</v>
       </c>
@@ -7348,7 +7366,7 @@
       <c r="A228" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B228" s="101"/>
+      <c r="B228" s="97"/>
       <c r="C228" s="9">
         <v>25500</v>
       </c>
@@ -7373,10 +7391,10 @@
       <c r="E229" s="19"/>
     </row>
     <row r="230" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A230" s="96" t="s">
+      <c r="A230" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="B230" s="103" t="s">
+      <c r="B230" s="99" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="9">
@@ -7399,10 +7417,10 @@
       <c r="E231" s="19"/>
     </row>
     <row r="232" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A232" s="102" t="s">
+      <c r="A232" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="B232" s="100"/>
+      <c r="B232" s="96"/>
       <c r="C232" s="9">
         <v>5850</v>
       </c>
@@ -7425,10 +7443,10 @@
       <c r="E233" s="19"/>
     </row>
     <row r="234" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A234" s="102" t="s">
+      <c r="A234" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B234" s="100"/>
+      <c r="B234" s="96"/>
       <c r="C234" s="9">
         <v>8950</v>
       </c>
@@ -7478,7 +7496,7 @@
       <c r="A238" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B238" s="100"/>
+      <c r="B238" s="96"/>
       <c r="C238" s="9">
         <v>10520</v>
       </c>
@@ -7504,7 +7522,7 @@
       <c r="A240" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B240" s="100"/>
+      <c r="B240" s="96"/>
       <c r="C240" s="9">
         <v>13050</v>
       </c>
@@ -7634,7 +7652,7 @@
       <c r="A250" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B250" s="104"/>
+      <c r="B250" s="100"/>
       <c r="C250" s="9">
         <v>8850</v>
       </c>
@@ -7660,7 +7678,7 @@
       <c r="A252" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B252" s="104"/>
+      <c r="B252" s="100"/>
       <c r="C252" s="9">
         <v>11350</v>
       </c>
@@ -7730,12 +7748,12 @@
       <c r="E256" s="19"/>
     </row>
     <row r="257" spans="1:5" s="20" customFormat="1" ht="46.9" customHeight="1">
-      <c r="A257" s="144" t="s">
+      <c r="A257" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="B257" s="145"/>
-      <c r="C257" s="145"/>
-      <c r="D257" s="146"/>
+      <c r="B257" s="148"/>
+      <c r="C257" s="148"/>
+      <c r="D257" s="149"/>
       <c r="E257" s="19"/>
     </row>
     <row r="258" spans="1:5" s="20" customFormat="1" ht="28.5" customHeight="1">
@@ -7745,14 +7763,14 @@
       <c r="B258" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C258" s="136" t="s">
+      <c r="C258" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D258" s="137"/>
+      <c r="D258" s="132"/>
       <c r="E258" s="19"/>
     </row>
     <row r="259" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A259" s="96" t="s">
+      <c r="A259" s="92" t="s">
         <v>536</v>
       </c>
       <c r="B259" s="11" t="s">
@@ -7781,7 +7799,7 @@
       <c r="A261" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="B261" s="104"/>
+      <c r="B261" s="100"/>
       <c r="C261" s="9">
         <v>7150</v>
       </c>
@@ -7804,10 +7822,10 @@
       <c r="E262" s="19"/>
     </row>
     <row r="263" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A263" s="102" t="s">
+      <c r="A263" s="98" t="s">
         <v>568</v>
       </c>
-      <c r="B263" s="104"/>
+      <c r="B263" s="100"/>
       <c r="C263" s="9">
         <v>11150</v>
       </c>
@@ -7830,10 +7848,10 @@
       <c r="E264" s="19"/>
     </row>
     <row r="265" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A265" s="102" t="s">
+      <c r="A265" s="98" t="s">
         <v>570</v>
       </c>
-      <c r="B265" s="106"/>
+      <c r="B265" s="102"/>
       <c r="C265" s="9">
         <v>14150</v>
       </c>
@@ -7856,7 +7874,7 @@
       <c r="E266" s="19"/>
     </row>
     <row r="267" spans="1:5" s="20" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A267" s="96" t="s">
+      <c r="A267" s="92" t="s">
         <v>543</v>
       </c>
       <c r="B267" s="11" t="s">
@@ -7877,7 +7895,7 @@
       <c r="D268" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="125"/>
+      <c r="E268" s="121"/>
     </row>
     <row r="269" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A269" s="14" t="s">
@@ -7910,7 +7928,7 @@
         <v>625</v>
       </c>
       <c r="B271" s="11"/>
-      <c r="C271" s="105">
+      <c r="C271" s="101">
         <v>16850</v>
       </c>
       <c r="D271" s="13" t="s">
@@ -7936,7 +7954,7 @@
         <v>627</v>
       </c>
       <c r="B273" s="11"/>
-      <c r="C273" s="105">
+      <c r="C273" s="101">
         <v>24850</v>
       </c>
       <c r="D273" s="13" t="s">
@@ -7962,74 +7980,74 @@
         <v>628</v>
       </c>
       <c r="B275" s="6"/>
-      <c r="C275" s="124">
+      <c r="C275" s="120">
         <v>8760</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E275" s="125"/>
+      <c r="E275" s="121"/>
     </row>
     <row r="276" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A276" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="B276" s="104"/>
-      <c r="C276" s="105">
+      <c r="B276" s="100"/>
+      <c r="C276" s="101">
         <v>11350</v>
       </c>
       <c r="D276" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E276" s="125"/>
+      <c r="E276" s="121"/>
     </row>
     <row r="277" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A277" s="8" t="s">
         <v>630</v>
       </c>
       <c r="B277" s="6"/>
-      <c r="C277" s="123">
+      <c r="C277" s="119">
         <v>12850</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E277" s="125"/>
+      <c r="E277" s="121"/>
     </row>
     <row r="278" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A278" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="B278" s="104"/>
-      <c r="C278" s="105">
+      <c r="B278" s="100"/>
+      <c r="C278" s="101">
         <v>16450</v>
       </c>
       <c r="D278" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="125"/>
+      <c r="E278" s="121"/>
     </row>
     <row r="279" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A279" s="8" t="s">
         <v>632</v>
       </c>
       <c r="B279" s="6"/>
-      <c r="C279" s="123">
+      <c r="C279" s="119">
         <v>17150</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E279" s="125"/>
+      <c r="E279" s="121"/>
     </row>
     <row r="280" spans="1:5" s="20" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A280" s="96" t="s">
+      <c r="A280" s="92" t="s">
         <v>580</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C280" s="122"/>
+      <c r="C280" s="118"/>
       <c r="D280" s="13"/>
       <c r="E280" s="19"/>
     </row>
@@ -8047,10 +8065,10 @@
       <c r="E281" s="19"/>
     </row>
     <row r="282" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A282" s="102" t="s">
+      <c r="A282" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="B282" s="101"/>
+      <c r="B282" s="97"/>
       <c r="C282" s="9">
         <v>11850</v>
       </c>
@@ -8071,10 +8089,10 @@
       <c r="E283" s="19"/>
     </row>
     <row r="284" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A284" s="102" t="s">
+      <c r="A284" s="98" t="s">
         <v>566</v>
       </c>
-      <c r="B284" s="107"/>
+      <c r="B284" s="103"/>
       <c r="C284" s="9">
         <v>13850</v>
       </c>
@@ -8097,7 +8115,7 @@
       <c r="E285" s="19"/>
     </row>
     <row r="286" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A286" s="102" t="s">
+      <c r="A286" s="98" t="s">
         <v>572</v>
       </c>
       <c r="B286" s="11"/>
@@ -8126,7 +8144,7 @@
       <c r="A288" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B288" s="101"/>
+      <c r="B288" s="97"/>
       <c r="C288" s="9">
         <v>29850</v>
       </c>
@@ -8136,19 +8154,19 @@
       <c r="E288" s="19"/>
     </row>
     <row r="289" spans="1:5" s="20" customFormat="1" ht="49.15" customHeight="1">
-      <c r="A289" s="118"/>
-      <c r="B289" s="130"/>
-      <c r="C289" s="126"/>
+      <c r="A289" s="114"/>
+      <c r="B289" s="126"/>
+      <c r="C289" s="122"/>
       <c r="D289" s="13"/>
       <c r="E289" s="19"/>
     </row>
     <row r="290" spans="1:5" s="20" customFormat="1" ht="53.45" customHeight="1">
-      <c r="A290" s="131" t="s">
+      <c r="A290" s="136" t="s">
         <v>645</v>
       </c>
-      <c r="B290" s="150"/>
-      <c r="C290" s="150"/>
-      <c r="D290" s="151"/>
+      <c r="B290" s="153"/>
+      <c r="C290" s="153"/>
+      <c r="D290" s="154"/>
       <c r="E290" s="19"/>
     </row>
     <row r="291" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -8178,7 +8196,7 @@
       <c r="E292" s="19"/>
     </row>
     <row r="293" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A293" s="102" t="s">
+      <c r="A293" s="98" t="s">
         <v>647</v>
       </c>
       <c r="B293" s="11" t="s">
@@ -8205,7 +8223,7 @@
       <c r="A295" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B295" s="128"/>
+      <c r="B295" s="124"/>
       <c r="C295" s="9">
         <v>14850</v>
       </c>
@@ -8231,7 +8249,7 @@
       <c r="A297" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B297" s="101"/>
+      <c r="B297" s="97"/>
       <c r="C297" s="9">
         <v>22850</v>
       </c>
@@ -8254,7 +8272,7 @@
       <c r="E298" s="19"/>
     </row>
     <row r="299" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A299" s="96" t="s">
+      <c r="A299" s="92" t="s">
         <v>543</v>
       </c>
       <c r="B299" s="11" t="s">
@@ -8282,7 +8300,7 @@
         <v>648</v>
       </c>
       <c r="B301" s="11"/>
-      <c r="C301" s="129">
+      <c r="C301" s="125">
         <v>11850</v>
       </c>
       <c r="D301" s="13" t="s">
@@ -8295,7 +8313,7 @@
         <v>649</v>
       </c>
       <c r="B302" s="22"/>
-      <c r="C302" s="123">
+      <c r="C302" s="119">
         <v>14850</v>
       </c>
       <c r="D302" s="3" t="s">
@@ -8308,7 +8326,7 @@
         <v>650</v>
       </c>
       <c r="B303" s="11"/>
-      <c r="C303" s="129">
+      <c r="C303" s="125">
         <v>17850</v>
       </c>
       <c r="D303" s="13" t="s">
@@ -8321,7 +8339,7 @@
         <v>651</v>
       </c>
       <c r="B304" s="22"/>
-      <c r="C304" s="123">
+      <c r="C304" s="119">
         <v>22850</v>
       </c>
       <c r="D304" s="3" t="s">
@@ -8334,7 +8352,7 @@
         <v>576</v>
       </c>
       <c r="B305" s="11"/>
-      <c r="C305" s="129">
+      <c r="C305" s="125">
         <v>26850</v>
       </c>
       <c r="D305" s="13" t="s">
@@ -8349,16 +8367,16 @@
       <c r="B306" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C306" s="98"/>
+      <c r="C306" s="94"/>
       <c r="D306" s="3"/>
       <c r="E306" s="19"/>
     </row>
     <row r="307" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A307" s="102" t="s">
+      <c r="A307" s="98" t="s">
         <v>558</v>
       </c>
       <c r="B307" s="11"/>
-      <c r="C307" s="126">
+      <c r="C307" s="122">
         <v>5850</v>
       </c>
       <c r="D307" s="13" t="s">
@@ -8371,7 +8389,7 @@
         <v>653</v>
       </c>
       <c r="B308" s="22"/>
-      <c r="C308" s="98">
+      <c r="C308" s="94">
         <v>6850</v>
       </c>
       <c r="D308" s="3" t="s">
@@ -8380,11 +8398,11 @@
       <c r="E308" s="19"/>
     </row>
     <row r="309" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A309" s="102" t="s">
+      <c r="A309" s="98" t="s">
         <v>654</v>
       </c>
       <c r="B309" s="11"/>
-      <c r="C309" s="126">
+      <c r="C309" s="122">
         <v>7850</v>
       </c>
       <c r="D309" s="13" t="s">
@@ -8397,7 +8415,7 @@
         <v>103</v>
       </c>
       <c r="B310" s="22"/>
-      <c r="C310" s="98">
+      <c r="C310" s="94">
         <v>8850</v>
       </c>
       <c r="D310" s="3" t="s">
@@ -8406,10 +8424,10 @@
       <c r="E310" s="19"/>
     </row>
     <row r="311" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A311" s="94" t="s">
+      <c r="A311" s="90" t="s">
         <v>557</v>
       </c>
-      <c r="B311" s="100" t="s">
+      <c r="B311" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C311" s="9"/>
@@ -8467,11 +8485,11 @@
       <c r="E315" s="19"/>
     </row>
     <row r="316" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A316" s="102" t="s">
+      <c r="A316" s="98" t="s">
         <v>558</v>
       </c>
       <c r="B316" s="11"/>
-      <c r="C316" s="126">
+      <c r="C316" s="122">
         <v>5850</v>
       </c>
       <c r="D316" s="13" t="s">
@@ -8484,7 +8502,7 @@
         <v>653</v>
       </c>
       <c r="B317" s="22"/>
-      <c r="C317" s="98">
+      <c r="C317" s="94">
         <v>6850</v>
       </c>
       <c r="D317" s="3" t="s">
@@ -8493,11 +8511,11 @@
       <c r="E317" s="19"/>
     </row>
     <row r="318" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A318" s="102" t="s">
+      <c r="A318" s="98" t="s">
         <v>654</v>
       </c>
       <c r="B318" s="11"/>
-      <c r="C318" s="126">
+      <c r="C318" s="122">
         <v>7850</v>
       </c>
       <c r="D318" s="13" t="s">
@@ -8510,7 +8528,7 @@
         <v>103</v>
       </c>
       <c r="B319" s="22"/>
-      <c r="C319" s="98">
+      <c r="C319" s="94">
         <v>8850</v>
       </c>
       <c r="D319" s="3" t="s">
@@ -8519,10 +8537,10 @@
       <c r="E319" s="19"/>
     </row>
     <row r="320" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A320" s="94" t="s">
+      <c r="A320" s="90" t="s">
         <v>656</v>
       </c>
-      <c r="B320" s="100" t="s">
+      <c r="B320" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C320" s="9"/>
@@ -8534,7 +8552,7 @@
         <v>558</v>
       </c>
       <c r="B321" s="22"/>
-      <c r="C321" s="98">
+      <c r="C321" s="94">
         <v>5850</v>
       </c>
       <c r="D321" s="3" t="s">
@@ -8547,7 +8565,7 @@
         <v>653</v>
       </c>
       <c r="B322" s="11"/>
-      <c r="C322" s="126">
+      <c r="C322" s="122">
         <v>6850</v>
       </c>
       <c r="D322" s="13" t="s">
@@ -8560,7 +8578,7 @@
         <v>654</v>
       </c>
       <c r="B323" s="22"/>
-      <c r="C323" s="98">
+      <c r="C323" s="94">
         <v>7850</v>
       </c>
       <c r="D323" s="3" t="s">
@@ -8573,7 +8591,7 @@
         <v>103</v>
       </c>
       <c r="B324" s="11"/>
-      <c r="C324" s="126">
+      <c r="C324" s="122">
         <v>8850</v>
       </c>
       <c r="D324" s="13" t="s">
@@ -8593,11 +8611,11 @@
       <c r="E325" s="19"/>
     </row>
     <row r="326" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A326" s="102" t="s">
+      <c r="A326" s="98" t="s">
         <v>558</v>
       </c>
       <c r="B326" s="11"/>
-      <c r="C326" s="126">
+      <c r="C326" s="122">
         <v>5850</v>
       </c>
       <c r="D326" s="13" t="s">
@@ -8610,7 +8628,7 @@
         <v>653</v>
       </c>
       <c r="B327" s="22"/>
-      <c r="C327" s="98">
+      <c r="C327" s="94">
         <v>6850</v>
       </c>
       <c r="D327" s="3" t="s">
@@ -8619,11 +8637,11 @@
       <c r="E327" s="19"/>
     </row>
     <row r="328" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A328" s="102" t="s">
+      <c r="A328" s="98" t="s">
         <v>654</v>
       </c>
       <c r="B328" s="11"/>
-      <c r="C328" s="126">
+      <c r="C328" s="122">
         <v>7850</v>
       </c>
       <c r="D328" s="13" t="s">
@@ -8636,7 +8654,7 @@
         <v>103</v>
       </c>
       <c r="B329" s="22"/>
-      <c r="C329" s="98">
+      <c r="C329" s="94">
         <v>8850</v>
       </c>
       <c r="D329" s="3" t="s">
@@ -8645,10 +8663,10 @@
       <c r="E329" s="19"/>
     </row>
     <row r="330" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A330" s="94" t="s">
+      <c r="A330" s="90" t="s">
         <v>658</v>
       </c>
-      <c r="B330" s="100" t="s">
+      <c r="B330" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="9"/>
@@ -8660,7 +8678,7 @@
         <v>558</v>
       </c>
       <c r="B331" s="22"/>
-      <c r="C331" s="98">
+      <c r="C331" s="94">
         <v>5850</v>
       </c>
       <c r="D331" s="3" t="s">
@@ -8673,7 +8691,7 @@
         <v>653</v>
       </c>
       <c r="B332" s="11"/>
-      <c r="C332" s="126">
+      <c r="C332" s="122">
         <v>6850</v>
       </c>
       <c r="D332" s="13" t="s">
@@ -8686,7 +8704,7 @@
         <v>654</v>
       </c>
       <c r="B333" s="22"/>
-      <c r="C333" s="98">
+      <c r="C333" s="94">
         <v>7850</v>
       </c>
       <c r="D333" s="3" t="s">
@@ -8699,7 +8717,7 @@
         <v>103</v>
       </c>
       <c r="B334" s="11"/>
-      <c r="C334" s="126">
+      <c r="C334" s="122">
         <v>8850</v>
       </c>
       <c r="D334" s="13" t="s">
@@ -8719,11 +8737,11 @@
       <c r="E335" s="19"/>
     </row>
     <row r="336" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A336" s="102" t="s">
+      <c r="A336" s="98" t="s">
         <v>558</v>
       </c>
       <c r="B336" s="11"/>
-      <c r="C336" s="126">
+      <c r="C336" s="122">
         <v>5850</v>
       </c>
       <c r="D336" s="13" t="s">
@@ -8736,7 +8754,7 @@
         <v>653</v>
       </c>
       <c r="B337" s="22"/>
-      <c r="C337" s="98">
+      <c r="C337" s="94">
         <v>6850</v>
       </c>
       <c r="D337" s="3" t="s">
@@ -8745,11 +8763,11 @@
       <c r="E337" s="19"/>
     </row>
     <row r="338" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A338" s="102" t="s">
+      <c r="A338" s="98" t="s">
         <v>654</v>
       </c>
       <c r="B338" s="11"/>
-      <c r="C338" s="126">
+      <c r="C338" s="122">
         <v>7850</v>
       </c>
       <c r="D338" s="13" t="s">
@@ -8762,7 +8780,7 @@
         <v>103</v>
       </c>
       <c r="B339" s="22"/>
-      <c r="C339" s="98">
+      <c r="C339" s="94">
         <v>8850</v>
       </c>
       <c r="D339" s="3" t="s">
@@ -8771,10 +8789,10 @@
       <c r="E339" s="19"/>
     </row>
     <row r="340" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A340" s="94" t="s">
+      <c r="A340" s="90" t="s">
         <v>660</v>
       </c>
-      <c r="B340" s="100" t="s">
+      <c r="B340" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C340" s="9"/>
@@ -8786,7 +8804,7 @@
         <v>558</v>
       </c>
       <c r="B341" s="22"/>
-      <c r="C341" s="98">
+      <c r="C341" s="94">
         <v>5850</v>
       </c>
       <c r="D341" s="3" t="s">
@@ -8799,7 +8817,7 @@
         <v>653</v>
       </c>
       <c r="B342" s="11"/>
-      <c r="C342" s="126">
+      <c r="C342" s="122">
         <v>6850</v>
       </c>
       <c r="D342" s="13" t="s">
@@ -8812,7 +8830,7 @@
         <v>654</v>
       </c>
       <c r="B343" s="22"/>
-      <c r="C343" s="98">
+      <c r="C343" s="94">
         <v>7850</v>
       </c>
       <c r="D343" s="3" t="s">
@@ -8825,7 +8843,7 @@
         <v>103</v>
       </c>
       <c r="B344" s="11"/>
-      <c r="C344" s="126">
+      <c r="C344" s="122">
         <v>8850</v>
       </c>
       <c r="D344" s="13" t="s">
@@ -8840,7 +8858,7 @@
       <c r="B345" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C345" s="98"/>
+      <c r="C345" s="94"/>
       <c r="D345" s="3"/>
       <c r="E345" s="19"/>
     </row>
@@ -8849,7 +8867,7 @@
         <v>558</v>
       </c>
       <c r="B346" s="11"/>
-      <c r="C346" s="126">
+      <c r="C346" s="122">
         <v>10000</v>
       </c>
       <c r="D346" s="13" t="s">
@@ -8862,7 +8880,7 @@
         <v>653</v>
       </c>
       <c r="B347" s="22"/>
-      <c r="C347" s="98">
+      <c r="C347" s="94">
         <v>12000</v>
       </c>
       <c r="D347" s="13" t="s">
@@ -8875,7 +8893,7 @@
         <v>654</v>
       </c>
       <c r="B348" s="11"/>
-      <c r="C348" s="126">
+      <c r="C348" s="122">
         <v>14000</v>
       </c>
       <c r="D348" s="13" t="s">
@@ -8888,7 +8906,7 @@
         <v>103</v>
       </c>
       <c r="B349" s="22"/>
-      <c r="C349" s="98">
+      <c r="C349" s="94">
         <v>16000</v>
       </c>
       <c r="D349" s="13" t="s">
@@ -8897,12 +8915,12 @@
       <c r="E349" s="19"/>
     </row>
     <row r="350" spans="1:5" s="20" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A350" s="147" t="s">
+      <c r="A350" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="B350" s="148"/>
-      <c r="C350" s="148"/>
-      <c r="D350" s="149"/>
+      <c r="B350" s="151"/>
+      <c r="C350" s="151"/>
+      <c r="D350" s="152"/>
       <c r="E350" s="19"/>
     </row>
     <row r="351" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -8912,10 +8930,10 @@
       <c r="B351" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C351" s="136" t="s">
+      <c r="C351" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D351" s="137"/>
+      <c r="D351" s="132"/>
       <c r="E351" s="19"/>
     </row>
     <row r="352" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -9113,7 +9131,7 @@
       <c r="E365" s="19"/>
     </row>
     <row r="366" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A366" s="96" t="s">
+      <c r="A366" s="92" t="s">
         <v>206</v>
       </c>
       <c r="B366" s="11" t="s">
@@ -9140,7 +9158,7 @@
       <c r="A368" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B368" s="101"/>
+      <c r="B368" s="97"/>
       <c r="C368" s="9">
         <v>19680</v>
       </c>
@@ -9166,7 +9184,7 @@
       <c r="A370" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B370" s="101"/>
+      <c r="B370" s="97"/>
       <c r="C370" s="9">
         <v>23550</v>
       </c>
@@ -9192,8 +9210,8 @@
       <c r="A372" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B372" s="101"/>
-      <c r="C372" s="108">
+      <c r="B372" s="97"/>
+      <c r="C372" s="104">
         <v>27150</v>
       </c>
       <c r="D372" s="13" t="s">
@@ -9288,8 +9306,8 @@
       <c r="A379" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B379" s="101"/>
-      <c r="C379" s="108">
+      <c r="B379" s="97"/>
+      <c r="C379" s="104">
         <v>33850</v>
       </c>
       <c r="D379" s="13" t="s">
@@ -9631,7 +9649,7 @@
       <c r="A406" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B406" s="101"/>
+      <c r="B406" s="97"/>
       <c r="C406" s="9">
         <v>6800</v>
       </c>
@@ -9657,7 +9675,7 @@
       <c r="A408" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B408" s="101"/>
+      <c r="B408" s="97"/>
       <c r="C408" s="9">
         <v>9850</v>
       </c>
@@ -9680,7 +9698,7 @@
       <c r="E409" s="19"/>
     </row>
     <row r="410" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A410" s="94" t="s">
+      <c r="A410" s="90" t="s">
         <v>214</v>
       </c>
       <c r="B410" s="11" t="s">
@@ -9707,7 +9725,7 @@
       <c r="A412" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B412" s="101"/>
+      <c r="B412" s="97"/>
       <c r="C412" s="9">
         <v>15850</v>
       </c>
@@ -9733,7 +9751,7 @@
       <c r="A414" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B414" s="101"/>
+      <c r="B414" s="97"/>
       <c r="C414" s="9">
         <v>22150</v>
       </c>
@@ -9847,21 +9865,21 @@
       <c r="E422" s="19"/>
     </row>
     <row r="423" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A423" s="152" t="s">
+      <c r="A423" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="B423" s="153"/>
-      <c r="C423" s="153"/>
-      <c r="D423" s="154"/>
+      <c r="B423" s="156"/>
+      <c r="C423" s="156"/>
+      <c r="D423" s="157"/>
       <c r="E423" s="19"/>
     </row>
     <row r="424" spans="1:6" s="20" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A424" s="155" t="s">
+      <c r="A424" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="B424" s="156"/>
-      <c r="C424" s="156"/>
-      <c r="D424" s="157"/>
+      <c r="B424" s="159"/>
+      <c r="C424" s="159"/>
+      <c r="D424" s="160"/>
       <c r="E424" s="19"/>
     </row>
     <row r="425" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
@@ -9876,11 +9894,11 @@
       <c r="E425" s="19"/>
     </row>
     <row r="426" spans="1:6" s="20" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A426" s="96" t="s">
+      <c r="A426" s="92" t="s">
         <v>221</v>
       </c>
       <c r="B426" s="11"/>
-      <c r="C426" s="109"/>
+      <c r="C426" s="105"/>
       <c r="D426" s="13"/>
       <c r="E426" s="19"/>
     </row>
@@ -9902,8 +9920,8 @@
       <c r="A428" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B428" s="101"/>
-      <c r="C428" s="110" t="s">
+      <c r="B428" s="97"/>
+      <c r="C428" s="106" t="s">
         <v>73</v>
       </c>
       <c r="D428" s="13" t="s">
@@ -9930,8 +9948,8 @@
       <c r="A430" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B430" s="101"/>
-      <c r="C430" s="110" t="s">
+      <c r="B430" s="97"/>
+      <c r="C430" s="106" t="s">
         <v>465</v>
       </c>
       <c r="D430" s="13" t="s">
@@ -9955,13 +9973,13 @@
       <c r="F431" s="54"/>
     </row>
     <row r="432" spans="1:6" s="20" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A432" s="96" t="s">
+      <c r="A432" s="92" t="s">
         <v>222</v>
       </c>
       <c r="B432" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C432" s="110"/>
+      <c r="C432" s="106"/>
       <c r="D432" s="13"/>
       <c r="E432" s="53"/>
       <c r="F432" s="54"/>
@@ -9984,8 +10002,8 @@
       <c r="A434" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B434" s="101"/>
-      <c r="C434" s="110">
+      <c r="B434" s="97"/>
+      <c r="C434" s="106">
         <v>13800</v>
       </c>
       <c r="D434" s="13" t="s">
@@ -10012,8 +10030,8 @@
       <c r="A436" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B436" s="101"/>
-      <c r="C436" s="110">
+      <c r="B436" s="97"/>
+      <c r="C436" s="106">
         <v>18080</v>
       </c>
       <c r="D436" s="13" t="s">
@@ -10037,12 +10055,12 @@
       <c r="F437" s="54"/>
     </row>
     <row r="438" spans="1:6" s="20" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A438" s="155" t="s">
+      <c r="A438" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="B438" s="156"/>
-      <c r="C438" s="156"/>
-      <c r="D438" s="157"/>
+      <c r="B438" s="159"/>
+      <c r="C438" s="159"/>
+      <c r="D438" s="160"/>
       <c r="E438" s="53"/>
       <c r="F438" s="54"/>
     </row>
@@ -10062,8 +10080,8 @@
       <c r="A440" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B440" s="101"/>
-      <c r="C440" s="110" t="s">
+      <c r="B440" s="97"/>
+      <c r="C440" s="106" t="s">
         <v>113</v>
       </c>
       <c r="D440" s="13" t="s">
@@ -10090,8 +10108,8 @@
       <c r="A442" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B442" s="101"/>
-      <c r="C442" s="110" t="s">
+      <c r="B442" s="97"/>
+      <c r="C442" s="106" t="s">
         <v>468</v>
       </c>
       <c r="D442" s="13" t="s">
@@ -10115,13 +10133,13 @@
       <c r="F443" s="54"/>
     </row>
     <row r="444" spans="1:6" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A444" s="96" t="s">
+      <c r="A444" s="92" t="s">
         <v>226</v>
       </c>
       <c r="B444" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C444" s="110"/>
+      <c r="C444" s="106"/>
       <c r="D444" s="13"/>
       <c r="E444" s="53"/>
       <c r="F444" s="54"/>
@@ -10144,8 +10162,8 @@
       <c r="A446" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B446" s="101"/>
-      <c r="C446" s="110" t="s">
+      <c r="B446" s="97"/>
+      <c r="C446" s="106" t="s">
         <v>471</v>
       </c>
       <c r="D446" s="13" t="s">
@@ -10169,13 +10187,13 @@
       <c r="F447" s="54"/>
     </row>
     <row r="448" spans="1:6" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A448" s="96" t="s">
+      <c r="A448" s="92" t="s">
         <v>227</v>
       </c>
       <c r="B448" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C448" s="109"/>
+      <c r="C448" s="105"/>
       <c r="D448" s="13"/>
       <c r="E448" s="53"/>
       <c r="F448" s="54"/>
@@ -10198,8 +10216,8 @@
       <c r="A450" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B450" s="101"/>
-      <c r="C450" s="110" t="s">
+      <c r="B450" s="97"/>
+      <c r="C450" s="106" t="s">
         <v>474</v>
       </c>
       <c r="D450" s="13" t="s">
@@ -10223,12 +10241,12 @@
       <c r="F451" s="54"/>
     </row>
     <row r="452" spans="1:6" s="20" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A452" s="158" t="s">
+      <c r="A452" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B452" s="159"/>
-      <c r="C452" s="159"/>
-      <c r="D452" s="160"/>
+      <c r="B452" s="162"/>
+      <c r="C452" s="162"/>
+      <c r="D452" s="163"/>
       <c r="E452" s="53"/>
       <c r="F452" s="54"/>
     </row>
@@ -10245,11 +10263,11 @@
       <c r="F453" s="54"/>
     </row>
     <row r="454" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A454" s="102" t="s">
+      <c r="A454" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="B454" s="101"/>
-      <c r="C454" s="110" t="s">
+      <c r="B454" s="97"/>
+      <c r="C454" s="106" t="s">
         <v>476</v>
       </c>
       <c r="D454" s="13" t="s">
@@ -10276,8 +10294,8 @@
       <c r="A456" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="B456" s="101"/>
-      <c r="C456" s="110" t="s">
+      <c r="B456" s="97"/>
+      <c r="C456" s="106" t="s">
         <v>478</v>
       </c>
       <c r="D456" s="13" t="s">
@@ -10304,8 +10322,8 @@
       <c r="A458" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B458" s="101"/>
-      <c r="C458" s="110" t="s">
+      <c r="B458" s="97"/>
+      <c r="C458" s="106" t="s">
         <v>456</v>
       </c>
       <c r="D458" s="13" t="s">
@@ -10327,11 +10345,11 @@
       <c r="F459" s="54"/>
     </row>
     <row r="460" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A460" s="102" t="s">
+      <c r="A460" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="B460" s="101"/>
-      <c r="C460" s="110">
+      <c r="B460" s="97"/>
+      <c r="C460" s="106">
         <v>15800</v>
       </c>
       <c r="D460" s="13" t="s">
@@ -10358,8 +10376,8 @@
       <c r="A462" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="B462" s="101"/>
-      <c r="C462" s="110">
+      <c r="B462" s="97"/>
+      <c r="C462" s="106">
         <v>17160</v>
       </c>
       <c r="D462" s="13" t="s">
@@ -10386,8 +10404,8 @@
       <c r="A464" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B464" s="101"/>
-      <c r="C464" s="110">
+      <c r="B464" s="97"/>
+      <c r="C464" s="106">
         <v>22450</v>
       </c>
       <c r="D464" s="13" t="s">
@@ -10409,11 +10427,11 @@
       <c r="F465" s="54"/>
     </row>
     <row r="466" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A466" s="102" t="s">
+      <c r="A466" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="B466" s="101"/>
-      <c r="C466" s="110">
+      <c r="B466" s="97"/>
+      <c r="C466" s="106">
         <v>14650</v>
       </c>
       <c r="D466" s="13" t="s">
@@ -10440,8 +10458,8 @@
       <c r="A468" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="B468" s="101"/>
-      <c r="C468" s="110">
+      <c r="B468" s="97"/>
+      <c r="C468" s="106">
         <v>16350</v>
       </c>
       <c r="D468" s="13" t="s">
@@ -10468,8 +10486,8 @@
       <c r="A470" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B470" s="101"/>
-      <c r="C470" s="110">
+      <c r="B470" s="97"/>
+      <c r="C470" s="106">
         <v>20350</v>
       </c>
       <c r="D470" s="13" t="s">
@@ -10479,23 +10497,23 @@
       <c r="F470" s="54"/>
     </row>
     <row r="471" spans="1:6" s="20" customFormat="1" ht="41.45" customHeight="1">
-      <c r="A471" s="155" t="s">
+      <c r="A471" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B471" s="161"/>
-      <c r="C471" s="161"/>
-      <c r="D471" s="162"/>
+      <c r="B471" s="164"/>
+      <c r="C471" s="164"/>
+      <c r="D471" s="165"/>
       <c r="E471" s="53"/>
       <c r="F471" s="54"/>
     </row>
     <row r="472" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A472" s="94" t="s">
+      <c r="A472" s="90" t="s">
         <v>233</v>
       </c>
       <c r="B472" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C472" s="111"/>
+      <c r="C472" s="107"/>
       <c r="D472" s="13"/>
       <c r="E472" s="53"/>
       <c r="F472" s="54"/>
@@ -10518,8 +10536,8 @@
       <c r="A474" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B474" s="101"/>
-      <c r="C474" s="110">
+      <c r="B474" s="97"/>
+      <c r="C474" s="106">
         <v>14650</v>
       </c>
       <c r="D474" s="13" t="s">
@@ -10546,8 +10564,8 @@
       <c r="A476" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B476" s="101"/>
-      <c r="C476" s="110">
+      <c r="B476" s="97"/>
+      <c r="C476" s="106">
         <v>18450</v>
       </c>
       <c r="D476" s="13" t="s">
@@ -10571,13 +10589,13 @@
       <c r="F477" s="54"/>
     </row>
     <row r="478" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A478" s="94" t="s">
+      <c r="A478" s="90" t="s">
         <v>234</v>
       </c>
       <c r="B478" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C478" s="110"/>
+      <c r="C478" s="106"/>
       <c r="D478" s="13"/>
       <c r="E478" s="53"/>
       <c r="F478" s="54"/>
@@ -10600,8 +10618,8 @@
       <c r="A480" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B480" s="101"/>
-      <c r="C480" s="112" t="s">
+      <c r="B480" s="97"/>
+      <c r="C480" s="108" t="s">
         <v>585</v>
       </c>
       <c r="D480" s="13" t="s">
@@ -10628,8 +10646,8 @@
       <c r="A482" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B482" s="101"/>
-      <c r="C482" s="112" t="s">
+      <c r="B482" s="97"/>
+      <c r="C482" s="108" t="s">
         <v>587</v>
       </c>
       <c r="D482" s="13" t="s">
@@ -10653,12 +10671,12 @@
       <c r="F483" s="54"/>
     </row>
     <row r="484" spans="1:6" s="20" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A484" s="144" t="s">
+      <c r="A484" s="147" t="s">
         <v>235</v>
       </c>
-      <c r="B484" s="163"/>
-      <c r="C484" s="163"/>
-      <c r="D484" s="164"/>
+      <c r="B484" s="166"/>
+      <c r="C484" s="166"/>
+      <c r="D484" s="167"/>
       <c r="E484" s="19"/>
     </row>
     <row r="485" spans="1:6" s="20" customFormat="1" ht="27" customHeight="1">
@@ -10668,10 +10686,10 @@
       <c r="B485" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C485" s="136" t="s">
+      <c r="C485" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D485" s="137"/>
+      <c r="D485" s="132"/>
       <c r="E485" s="19"/>
     </row>
     <row r="486" spans="1:6" s="20" customFormat="1" ht="18" customHeight="1">
@@ -10857,12 +10875,12 @@
       <c r="E499" s="19"/>
     </row>
     <row r="500" spans="1:10" s="20" customFormat="1" ht="39" customHeight="1">
-      <c r="A500" s="131" t="s">
+      <c r="A500" s="136" t="s">
         <v>663</v>
       </c>
-      <c r="B500" s="142"/>
-      <c r="C500" s="142"/>
-      <c r="D500" s="143"/>
+      <c r="B500" s="145"/>
+      <c r="C500" s="145"/>
+      <c r="D500" s="146"/>
       <c r="E500" s="19"/>
       <c r="J500" s="59"/>
     </row>
@@ -10873,10 +10891,10 @@
       <c r="B501" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C501" s="136" t="s">
+      <c r="C501" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D501" s="137"/>
+      <c r="D501" s="132"/>
       <c r="E501" s="19"/>
     </row>
     <row r="502" spans="1:10" s="20" customFormat="1" ht="18" customHeight="1">
@@ -11212,12 +11230,12 @@
       <c r="E527" s="19"/>
     </row>
     <row r="528" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A528" s="131" t="s">
+      <c r="A528" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="B528" s="142"/>
-      <c r="C528" s="142"/>
-      <c r="D528" s="143"/>
+      <c r="B528" s="145"/>
+      <c r="C528" s="145"/>
+      <c r="D528" s="146"/>
       <c r="E528" s="19"/>
     </row>
     <row r="529" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -11227,10 +11245,10 @@
       <c r="B529" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C529" s="136" t="s">
+      <c r="C529" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D529" s="137"/>
+      <c r="D529" s="132"/>
       <c r="E529" s="19"/>
     </row>
     <row r="530" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -11942,12 +11960,12 @@
       <c r="E583" s="19"/>
     </row>
     <row r="584" spans="1:5" s="20" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A584" s="131" t="s">
+      <c r="A584" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="B584" s="142"/>
-      <c r="C584" s="142"/>
-      <c r="D584" s="143"/>
+      <c r="B584" s="145"/>
+      <c r="C584" s="145"/>
+      <c r="D584" s="146"/>
       <c r="E584" s="19"/>
     </row>
     <row r="585" spans="1:5" s="20" customFormat="1" ht="27.75" customHeight="1">
@@ -11957,10 +11975,10 @@
       <c r="B585" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C585" s="136" t="s">
+      <c r="C585" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D585" s="137"/>
+      <c r="D585" s="132"/>
       <c r="E585" s="19"/>
     </row>
     <row r="586" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -12407,12 +12425,12 @@
       <c r="E620" s="19"/>
     </row>
     <row r="621" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A621" s="131" t="s">
+      <c r="A621" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="B621" s="132"/>
-      <c r="C621" s="132"/>
-      <c r="D621" s="133"/>
+      <c r="B621" s="137"/>
+      <c r="C621" s="137"/>
+      <c r="D621" s="138"/>
       <c r="E621" s="19"/>
     </row>
     <row r="622" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -12422,10 +12440,10 @@
       <c r="B622" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C622" s="136" t="s">
+      <c r="C622" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D622" s="137"/>
+      <c r="D622" s="132"/>
       <c r="E622" s="19"/>
     </row>
     <row r="623" spans="1:5" s="20" customFormat="1" ht="18.75" customHeight="1">
@@ -12592,7 +12610,7 @@
       <c r="E635" s="19"/>
     </row>
     <row r="636" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A636" s="113" t="s">
+      <c r="A636" s="109" t="s">
         <v>593</v>
       </c>
       <c r="B636" s="22" t="s">
@@ -12603,7 +12621,7 @@
       <c r="E636" s="19"/>
     </row>
     <row r="637" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A637" s="102" t="s">
+      <c r="A637" s="98" t="s">
         <v>186</v>
       </c>
       <c r="B637" s="11"/>
@@ -12668,7 +12686,7 @@
       <c r="E641" s="19"/>
     </row>
     <row r="642" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A642" s="113" t="s">
+      <c r="A642" s="109" t="s">
         <v>594</v>
       </c>
       <c r="B642" s="22" t="s">
@@ -12679,7 +12697,7 @@
       <c r="E642" s="19"/>
     </row>
     <row r="643" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A643" s="102" t="s">
+      <c r="A643" s="98" t="s">
         <v>186</v>
       </c>
       <c r="B643" s="11"/>
@@ -12755,7 +12773,7 @@
       <c r="E648" s="19"/>
     </row>
     <row r="649" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A649" s="102" t="s">
+      <c r="A649" s="98" t="s">
         <v>186</v>
       </c>
       <c r="B649" s="11"/>
@@ -13137,12 +13155,12 @@
       <c r="E678" s="19"/>
     </row>
     <row r="679" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A679" s="131" t="s">
+      <c r="A679" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="B679" s="132"/>
-      <c r="C679" s="132"/>
-      <c r="D679" s="133"/>
+      <c r="B679" s="137"/>
+      <c r="C679" s="137"/>
+      <c r="D679" s="138"/>
       <c r="E679" s="19"/>
     </row>
     <row r="680" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -13152,10 +13170,10 @@
       <c r="B680" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C680" s="136" t="s">
+      <c r="C680" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D680" s="137"/>
+      <c r="D680" s="132"/>
       <c r="E680" s="19"/>
     </row>
     <row r="681" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -13500,12 +13518,12 @@
       <c r="E703" s="19"/>
     </row>
     <row r="704" spans="1:5" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A704" s="131" t="s">
+      <c r="A704" s="136" t="s">
         <v>445</v>
       </c>
-      <c r="B704" s="134"/>
-      <c r="C704" s="134"/>
-      <c r="D704" s="135"/>
+      <c r="B704" s="139"/>
+      <c r="C704" s="139"/>
+      <c r="D704" s="140"/>
       <c r="E704" s="19"/>
     </row>
     <row r="705" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -13515,10 +13533,10 @@
       <c r="B705" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C705" s="136" t="s">
+      <c r="C705" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D705" s="137"/>
+      <c r="D705" s="132"/>
       <c r="E705" s="19"/>
     </row>
     <row r="706" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -13589,10 +13607,10 @@
       <c r="E710" s="19"/>
     </row>
     <row r="711" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A711" s="102" t="s">
+      <c r="A711" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="B711" s="115"/>
+      <c r="B711" s="111"/>
       <c r="C711" s="9">
         <v>12000</v>
       </c>
@@ -13615,10 +13633,10 @@
       <c r="E712" s="19"/>
     </row>
     <row r="713" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A713" s="102" t="s">
+      <c r="A713" s="98" t="s">
         <v>572</v>
       </c>
-      <c r="B713" s="104"/>
+      <c r="B713" s="100"/>
       <c r="C713" s="9">
         <v>17000</v>
       </c>
@@ -13644,11 +13662,11 @@
       <c r="A715" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B715" s="106"/>
+      <c r="B715" s="102"/>
       <c r="C715" s="9">
         <v>24000</v>
       </c>
-      <c r="D715" s="116" t="s">
+      <c r="D715" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E715" s="19"/>
@@ -13660,16 +13678,16 @@
       <c r="B716" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C716" s="114"/>
+      <c r="C716" s="110"/>
       <c r="D716" s="29"/>
       <c r="E716" s="19"/>
     </row>
     <row r="717" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A717" s="102" t="s">
+      <c r="A717" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="B717" s="101"/>
-      <c r="C717" s="117">
+      <c r="B717" s="97"/>
+      <c r="C717" s="113">
         <v>14000</v>
       </c>
       <c r="D717" s="13" t="s">
@@ -13682,7 +13700,7 @@
         <v>571</v>
       </c>
       <c r="B718" s="35"/>
-      <c r="C718" s="114">
+      <c r="C718" s="110">
         <v>16000</v>
       </c>
       <c r="D718" s="3" t="s">
@@ -13691,11 +13709,11 @@
       <c r="E718" s="19"/>
     </row>
     <row r="719" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A719" s="102" t="s">
+      <c r="A719" s="98" t="s">
         <v>572</v>
       </c>
-      <c r="B719" s="101"/>
-      <c r="C719" s="117">
+      <c r="B719" s="97"/>
+      <c r="C719" s="113">
         <v>19000</v>
       </c>
       <c r="D719" s="13" t="s">
@@ -13708,7 +13726,7 @@
         <v>574</v>
       </c>
       <c r="B720" s="35"/>
-      <c r="C720" s="114">
+      <c r="C720" s="110">
         <v>21000</v>
       </c>
       <c r="D720" s="3" t="s">
@@ -13720,11 +13738,11 @@
       <c r="A721" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B721" s="101"/>
-      <c r="C721" s="117">
+      <c r="B721" s="97"/>
+      <c r="C721" s="113">
         <v>26000</v>
       </c>
-      <c r="D721" s="116" t="s">
+      <c r="D721" s="112" t="s">
         <v>5</v>
       </c>
       <c r="E721" s="19"/>
@@ -13831,12 +13849,12 @@
       <c r="E728" s="19"/>
     </row>
     <row r="729" spans="1:5" s="20" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A729" s="131" t="s">
+      <c r="A729" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="B729" s="134"/>
-      <c r="C729" s="134"/>
-      <c r="D729" s="135"/>
+      <c r="B729" s="139"/>
+      <c r="C729" s="139"/>
+      <c r="D729" s="140"/>
       <c r="E729" s="19"/>
     </row>
     <row r="730" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
@@ -13846,10 +13864,10 @@
       <c r="B730" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C730" s="136" t="s">
+      <c r="C730" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D730" s="137"/>
+      <c r="D730" s="132"/>
       <c r="E730" s="19"/>
     </row>
     <row r="731" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1">
@@ -13988,12 +14006,12 @@
       <c r="E739" s="19"/>
     </row>
     <row r="740" spans="1:5" s="20" customFormat="1" ht="42" customHeight="1">
-      <c r="A740" s="131" t="s">
+      <c r="A740" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="B740" s="134"/>
-      <c r="C740" s="134"/>
-      <c r="D740" s="135"/>
+      <c r="B740" s="139"/>
+      <c r="C740" s="139"/>
+      <c r="D740" s="140"/>
       <c r="E740" s="19"/>
     </row>
     <row r="741" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1">
@@ -14003,10 +14021,10 @@
       <c r="B741" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C741" s="136" t="s">
+      <c r="C741" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D741" s="137"/>
+      <c r="D741" s="132"/>
       <c r="E741" s="19"/>
     </row>
     <row r="742" spans="1:5" s="20" customFormat="1" ht="17.25" customHeight="1">
@@ -14079,13 +14097,13 @@
       <c r="E746" s="19"/>
     </row>
     <row r="747" spans="1:5" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A747" s="118" t="s">
+      <c r="A747" s="114" t="s">
         <v>613</v>
       </c>
       <c r="B747" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C747" s="109">
+      <c r="C747" s="105">
         <v>4850</v>
       </c>
       <c r="D747" s="13" t="s">
@@ -14109,13 +14127,13 @@
       <c r="E748" s="19"/>
     </row>
     <row r="749" spans="1:5" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A749" s="118" t="s">
+      <c r="A749" s="114" t="s">
         <v>615</v>
       </c>
       <c r="B749" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C749" s="109">
+      <c r="C749" s="105">
         <v>6350</v>
       </c>
       <c r="D749" s="13" t="s">
@@ -14133,16 +14151,16 @@
       <c r="E750" s="19"/>
     </row>
     <row r="751" spans="1:5" s="20" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A751" s="118" t="s">
+      <c r="A751" s="114" t="s">
         <v>552</v>
       </c>
-      <c r="B751" s="104" t="s">
+      <c r="B751" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="C751" s="109">
+      <c r="C751" s="105">
         <v>5550</v>
       </c>
-      <c r="D751" s="119" t="s">
+      <c r="D751" s="115" t="s">
         <v>5</v>
       </c>
       <c r="E751" s="19"/>
@@ -14163,16 +14181,16 @@
       <c r="E752" s="19"/>
     </row>
     <row r="753" spans="1:5" s="20" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A753" s="118" t="s">
+      <c r="A753" s="114" t="s">
         <v>614</v>
       </c>
-      <c r="B753" s="104" t="s">
+      <c r="B753" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="C753" s="109">
+      <c r="C753" s="105">
         <v>6550</v>
       </c>
-      <c r="D753" s="119" t="s">
+      <c r="D753" s="115" t="s">
         <v>5</v>
       </c>
       <c r="E753" s="19"/>
@@ -14193,11 +14211,11 @@
       <c r="E754" s="19"/>
     </row>
     <row r="755" spans="1:5" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A755" s="96" t="s">
+      <c r="A755" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="B755" s="104"/>
-      <c r="C755" s="109"/>
+      <c r="B755" s="100"/>
+      <c r="C755" s="105"/>
       <c r="D755" s="13"/>
       <c r="E755" s="19"/>
     </row>
@@ -14217,13 +14235,13 @@
       <c r="E756" s="19"/>
     </row>
     <row r="757" spans="1:5" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A757" s="118" t="s">
+      <c r="A757" s="114" t="s">
         <v>613</v>
       </c>
-      <c r="B757" s="104" t="s">
+      <c r="B757" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="C757" s="109">
+      <c r="C757" s="105">
         <v>7350</v>
       </c>
       <c r="D757" s="13" t="s">
@@ -14247,13 +14265,13 @@
       <c r="E758" s="19"/>
     </row>
     <row r="759" spans="1:5" s="20" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A759" s="118" t="s">
+      <c r="A759" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="B759" s="104" t="s">
+      <c r="B759" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="C759" s="109">
+      <c r="C759" s="105">
         <v>8850</v>
       </c>
       <c r="D759" s="13" t="s">
@@ -14262,13 +14280,13 @@
       <c r="E759" s="19"/>
     </row>
     <row r="760" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1">
-      <c r="A760" s="96" t="s">
+      <c r="A760" s="92" t="s">
         <v>351</v>
       </c>
-      <c r="B760" s="104" t="s">
+      <c r="B760" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="C760" s="120"/>
+      <c r="C760" s="116"/>
       <c r="D760" s="13"/>
       <c r="E760" s="19"/>
     </row>
@@ -14619,18 +14637,18 @@
     </row>
     <row r="786" spans="1:5" s="20" customFormat="1" ht="57.6" customHeight="1">
       <c r="A786" s="39"/>
-      <c r="B786" s="97"/>
+      <c r="B786" s="93"/>
       <c r="C786" s="51"/>
       <c r="D786" s="3"/>
       <c r="E786" s="19"/>
     </row>
     <row r="787" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A787" s="131" t="s">
+      <c r="A787" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="B787" s="142"/>
-      <c r="C787" s="142"/>
-      <c r="D787" s="143"/>
+      <c r="B787" s="145"/>
+      <c r="C787" s="145"/>
+      <c r="D787" s="146"/>
     </row>
     <row r="788" spans="1:5" ht="18" customHeight="1">
       <c r="A788" s="72" t="s">
@@ -14899,7 +14917,7 @@
       </c>
     </row>
     <row r="807" spans="1:4" ht="18" customHeight="1">
-      <c r="A807" s="127" t="s">
+      <c r="A807" s="123" t="s">
         <v>403</v>
       </c>
       <c r="B807" s="1">
@@ -15109,12 +15127,12 @@
       </c>
     </row>
     <row r="822" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A822" s="165" t="s">
+      <c r="A822" s="168" t="s">
         <v>415</v>
       </c>
-      <c r="B822" s="166"/>
-      <c r="C822" s="166"/>
-      <c r="D822" s="167"/>
+      <c r="B822" s="169"/>
+      <c r="C822" s="169"/>
+      <c r="D822" s="170"/>
     </row>
     <row r="823" spans="1:4" ht="18" customHeight="1">
       <c r="A823" s="80" t="s">
@@ -15173,12 +15191,12 @@
       </c>
     </row>
     <row r="827" spans="1:4" ht="42" customHeight="1">
-      <c r="A827" s="131" t="s">
+      <c r="A827" s="136" t="s">
         <v>416</v>
       </c>
-      <c r="B827" s="142"/>
-      <c r="C827" s="142"/>
-      <c r="D827" s="143"/>
+      <c r="B827" s="145"/>
+      <c r="C827" s="145"/>
+      <c r="D827" s="146"/>
     </row>
     <row r="828" spans="1:4" ht="16.5" customHeight="1">
       <c r="A828" s="37" t="s">
@@ -15296,59 +15314,59 @@
       <c r="A836" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="B836" s="171" t="s">
+      <c r="B836" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="C836" s="172"/>
-      <c r="D836" s="173"/>
+      <c r="C836" s="175"/>
+      <c r="D836" s="176"/>
     </row>
     <row r="837" spans="1:5" ht="76.900000000000006" customHeight="1">
       <c r="A837" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="B837" s="171" t="s">
+      <c r="B837" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="C837" s="172"/>
-      <c r="D837" s="173"/>
+      <c r="C837" s="175"/>
+      <c r="D837" s="176"/>
     </row>
     <row r="838" spans="1:5" ht="76.900000000000006" customHeight="1">
       <c r="A838" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="B838" s="171" t="s">
+      <c r="B838" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="C838" s="172"/>
-      <c r="D838" s="173"/>
+      <c r="C838" s="175"/>
+      <c r="D838" s="176"/>
     </row>
     <row r="839" spans="1:5" ht="76.900000000000006" customHeight="1">
       <c r="A839" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="B839" s="171" t="s">
+      <c r="B839" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="C839" s="172"/>
-      <c r="D839" s="173"/>
+      <c r="C839" s="175"/>
+      <c r="D839" s="176"/>
     </row>
     <row r="840" spans="1:5" ht="76.900000000000006" customHeight="1">
       <c r="A840" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B840" s="171" t="s">
+      <c r="B840" s="174" t="s">
         <v>426</v>
       </c>
-      <c r="C840" s="172"/>
-      <c r="D840" s="173"/>
+      <c r="C840" s="175"/>
+      <c r="D840" s="176"/>
     </row>
     <row r="841" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A841" s="168" t="s">
+      <c r="A841" s="171" t="s">
         <v>431</v>
       </c>
-      <c r="B841" s="169"/>
-      <c r="C841" s="169"/>
-      <c r="D841" s="170"/>
+      <c r="B841" s="172"/>
+      <c r="C841" s="172"/>
+      <c r="D841" s="173"/>
     </row>
     <row r="842" spans="1:5" s="20" customFormat="1" ht="27">
       <c r="A842" s="17" t="s">
@@ -15357,10 +15375,10 @@
       <c r="B842" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C842" s="136" t="s">
+      <c r="C842" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="D842" s="137"/>
+      <c r="D842" s="132"/>
       <c r="E842" s="19"/>
     </row>
     <row r="843" spans="1:5" ht="60.75" customHeight="1">
@@ -15448,7 +15466,7 @@
       <c r="B849" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C849" s="121">
+      <c r="C849" s="117">
         <v>6000</v>
       </c>
       <c r="D849" s="13" t="s">
@@ -15476,7 +15494,7 @@
       <c r="B851" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C851" s="121">
+      <c r="C851" s="117">
         <v>7500</v>
       </c>
       <c r="D851" s="13" t="s">
@@ -15492,16 +15510,16 @@
       <c r="D852" s="87"/>
     </row>
     <row r="853" spans="1:4" ht="18" customHeight="1">
-      <c r="A853" s="118" t="s">
+      <c r="A853" s="114" t="s">
         <v>433</v>
       </c>
       <c r="B853" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C853" s="121">
+      <c r="C853" s="117">
         <v>1000</v>
       </c>
-      <c r="D853" s="119" t="s">
+      <c r="D853" s="115" t="s">
         <v>5</v>
       </c>
     </row>
@@ -15526,7 +15544,7 @@
       <c r="B855" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C855" s="121">
+      <c r="C855" s="117">
         <v>3000</v>
       </c>
       <c r="D855" s="13" t="s">
@@ -15554,7 +15572,7 @@
       <c r="B857" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C857" s="121">
+      <c r="C857" s="117">
         <v>5000</v>
       </c>
       <c r="D857" s="13" t="s">
@@ -15582,7 +15600,7 @@
       <c r="B859" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C859" s="121">
+      <c r="C859" s="117">
         <v>6500</v>
       </c>
       <c r="D859" s="13" t="s">
@@ -15626,16 +15644,16 @@
       </c>
     </row>
     <row r="863" spans="1:4" ht="18" customHeight="1">
-      <c r="A863" s="118" t="s">
+      <c r="A863" s="114" t="s">
         <v>434</v>
       </c>
       <c r="B863" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C863" s="121">
+      <c r="C863" s="117">
         <v>6000</v>
       </c>
-      <c r="D863" s="119" t="s">
+      <c r="D863" s="115" t="s">
         <v>5</v>
       </c>
     </row>
@@ -15660,7 +15678,7 @@
       <c r="B865" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C865" s="121">
+      <c r="C865" s="117">
         <v>8000</v>
       </c>
       <c r="D865" s="13" t="s">
@@ -15688,7 +15706,7 @@
       <c r="B867" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C867" s="121">
+      <c r="C867" s="117">
         <v>11000</v>
       </c>
       <c r="D867" s="13" t="s">
@@ -15716,21 +15734,119 @@
       <c r="B869" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C869" s="121">
+      <c r="C869" s="117">
         <v>14000</v>
       </c>
       <c r="D869" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
-      <c r="A870" s="88"/>
-      <c r="B870" s="89"/>
-      <c r="C870" s="90"/>
-      <c r="D870" s="91"/>
+    <row r="870" spans="1:4" ht="18" customHeight="1">
+      <c r="A870" s="133" t="s">
+        <v>666</v>
+      </c>
+      <c r="B870" s="134"/>
+      <c r="C870" s="134"/>
+      <c r="D870" s="135"/>
+    </row>
+    <row r="871" spans="1:4" ht="27">
+      <c r="A871" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B871" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C871" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D871" s="132"/>
+    </row>
+    <row r="872" spans="1:4" ht="25.5">
+      <c r="A872" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="B872" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C872" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="25.5">
+      <c r="A873" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B873" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C873" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" ht="25.5">
+      <c r="A874" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B874" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C874" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" ht="25.5">
+      <c r="A875" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B875" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C875" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D875" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="28.5">
+      <c r="A876" s="127" t="s">
+        <v>550</v>
+      </c>
+      <c r="B876" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C876" s="129">
+        <v>1500</v>
+      </c>
+      <c r="D876" s="130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="28.5">
+      <c r="A877" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B877" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C877" s="122">
+        <v>2500</v>
+      </c>
+      <c r="D877" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="A822:D822"/>
     <mergeCell ref="A827:D827"/>
     <mergeCell ref="A841:D841"/>
@@ -15752,6 +15868,10 @@
     <mergeCell ref="C730:D730"/>
     <mergeCell ref="A740:D740"/>
     <mergeCell ref="C741:D741"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A290:D290"/>
     <mergeCell ref="A584:D584"/>
     <mergeCell ref="A423:D423"/>
     <mergeCell ref="A424:D424"/>
@@ -15764,6 +15884,13 @@
     <mergeCell ref="C501:D501"/>
     <mergeCell ref="A528:D528"/>
     <mergeCell ref="C529:D529"/>
+    <mergeCell ref="C871:D871"/>
+    <mergeCell ref="A870:D870"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C351:D351"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C109:D109"/>
@@ -15773,15 +15900,6 @@
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="C160:D160"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="C66:D66"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="A3:B8 D3:D8 A13:B13 D13">
@@ -15836,32 +15954,32 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:B151">
     <cfRule type="expression" dxfId="62" priority="25">
-      <formula>MOD(ROW(A1047541),2)=0</formula>
+      <formula>MOD(ROW(A1047542),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:B156">
     <cfRule type="expression" dxfId="61" priority="24">
-      <formula>MOD(ROW(A1047543),2)=0</formula>
+      <formula>MOD(ROW(A1047544),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A785:C785">
     <cfRule type="expression" dxfId="60" priority="387">
-      <formula>MOD(ROW(A1048101),2)=0</formula>
+      <formula>MOD(ROW(A1048102),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:D99">
     <cfRule type="expression" dxfId="59" priority="35">
-      <formula>MOD(ROW(A1048027),2)=0</formula>
+      <formula>MOD(ROW(A1048028),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:D102">
     <cfRule type="expression" dxfId="58" priority="383">
-      <formula>MOD(ROW(A1048161),2)=0</formula>
+      <formula>MOD(ROW(A1048162),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:D119">
     <cfRule type="expression" dxfId="57" priority="32">
-      <formula>MOD(ROW(A1048163),2)=0</formula>
+      <formula>MOD(ROW(A1048164),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:D123">
@@ -15881,152 +15999,152 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:D146">
     <cfRule type="expression" dxfId="53" priority="384">
-      <formula>MOD(ROW(A1047532),2)=0</formula>
+      <formula>MOD(ROW(A1047533),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A623:D626">
     <cfRule type="expression" dxfId="52" priority="385">
-      <formula>MOD(ROW(A1047951),2)=0</formula>
+      <formula>MOD(ROW(A1047952),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627:D635">
     <cfRule type="expression" dxfId="51" priority="386">
-      <formula>MOD(ROW(A1047954),2)=0</formula>
+      <formula>MOD(ROW(A1047955),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:D167">
     <cfRule type="expression" dxfId="50" priority="543">
-      <formula>MOD(ROW(A1047547),2)=0</formula>
+      <formula>MOD(ROW(A1047548),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D173 A188:D188 B189:D192 A193:D194 B195:D197 A280:D280 B179:B183 C183:D183 A178:D178 D179:D182">
     <cfRule type="expression" dxfId="49" priority="77">
-      <formula>MOD(ROW(A1047557),2)=0</formula>
+      <formula>MOD(ROW(A1047558),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
     <cfRule type="expression" dxfId="48" priority="388">
-      <formula>MOD(ROW(A1047568),2)=0</formula>
+      <formula>MOD(ROW(A1047569),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204:D204 A214:D214">
     <cfRule type="expression" dxfId="47" priority="561">
-      <formula>MOD(ROW(A1047596),2)=0</formula>
+      <formula>MOD(ROW(A1047597),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:D519 A805:D814">
     <cfRule type="expression" dxfId="46" priority="403">
-      <formula>MOD(ROW(A1047839),2)=0</formula>
+      <formula>MOD(ROW(A1047840),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256:D256">
     <cfRule type="expression" dxfId="45" priority="66">
-      <formula>MOD(ROW(A1047647),2)=0</formula>
+      <formula>MOD(ROW(A1047648),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A352:D364">
     <cfRule type="expression" dxfId="44" priority="422">
-      <formula>MOD(ROW(A1047688),2)=0</formula>
+      <formula>MOD(ROW(A1047689),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A366:D366 A800:D804">
     <cfRule type="expression" dxfId="43" priority="423">
-      <formula>MOD(ROW(A1047701),2)=0</formula>
+      <formula>MOD(ROW(A1047702),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A373:D373 B377:C377 D377:D378 A586:D590 A612:A613 D612:D613 A788:D799 A592:D611 A591 C591:D591">
     <cfRule type="expression" dxfId="42" priority="22">
-      <formula>MOD(ROW(A1047707),2)=0</formula>
+      <formula>MOD(ROW(A1047708),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A520:D527 A530:D557">
+  <conditionalFormatting sqref="A520:D527 A530:D557 A828:D835 A836:B840">
     <cfRule type="expression" dxfId="41" priority="38">
-      <formula>MOD(ROW(A1047861),2)=0</formula>
+      <formula>MOD(ROW(A1047862),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A558:D564">
     <cfRule type="expression" dxfId="40" priority="73">
-      <formula>MOD(ROW(A1047905),2)=0</formula>
+      <formula>MOD(ROW(A1047906),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A566:D567">
     <cfRule type="expression" dxfId="39" priority="61">
-      <formula>MOD(ROW(A1047911),2)=0</formula>
+      <formula>MOD(ROW(A1047912),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A568:D569">
     <cfRule type="expression" dxfId="38" priority="62">
-      <formula>MOD(ROW(A1047911),2)=0</formula>
+      <formula>MOD(ROW(A1047912),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A570:D570">
     <cfRule type="expression" dxfId="37" priority="44">
-      <formula>MOD(ROW(A1047911),2)=0</formula>
+      <formula>MOD(ROW(A1047912),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A571:D574 A816:D821">
     <cfRule type="expression" dxfId="36" priority="43">
-      <formula>MOD(ROW(A1047910),2)=0</formula>
+      <formula>MOD(ROW(A1047911),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A576:D583">
     <cfRule type="expression" dxfId="35" priority="76">
-      <formula>MOD(ROW(A1047910),2)=0</formula>
+      <formula>MOD(ROW(A1047911),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A612:D613">
     <cfRule type="expression" dxfId="34" priority="426">
-      <formula>MOD(ROW(A1047942),2)=0</formula>
+      <formula>MOD(ROW(A1047943),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A614:D620">
     <cfRule type="expression" dxfId="33" priority="58">
-      <formula>MOD(ROW(A1047942),2)=0</formula>
+      <formula>MOD(ROW(A1047943),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A654:D672">
     <cfRule type="expression" dxfId="32" priority="521">
-      <formula>MOD(ROW(A1047969),2)=0</formula>
+      <formula>MOD(ROW(A1047970),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A678:D678 A681:D691">
     <cfRule type="expression" dxfId="31" priority="67">
-      <formula>MOD(ROW(A1047987),2)=0</formula>
+      <formula>MOD(ROW(A1047988),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A702:D703 A706:D709">
     <cfRule type="expression" dxfId="30" priority="42">
-      <formula>MOD(ROW(A1048015),2)=0</formula>
+      <formula>MOD(ROW(A1048016),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A722:D722">
     <cfRule type="expression" dxfId="29" priority="527">
-      <formula>MOD(ROW(A1048029),2)=0</formula>
+      <formula>MOD(ROW(A1048030),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A723:D728">
     <cfRule type="expression" dxfId="28" priority="48">
-      <formula>MOD(ROW(A1048031),2)=0</formula>
+      <formula>MOD(ROW(A1048032),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A731:D739">
     <cfRule type="expression" dxfId="27" priority="39">
-      <formula>MOD(ROW(A1048051),2)=0</formula>
+      <formula>MOD(ROW(A1048052),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A742:D745">
     <cfRule type="expression" dxfId="26" priority="46">
-      <formula>MOD(ROW(A1048063),2)=0</formula>
+      <formula>MOD(ROW(A1048064),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760:D784 D785">
     <cfRule type="expression" dxfId="25" priority="36">
-      <formula>MOD(ROW(A1048078),2)=0</formula>
+      <formula>MOD(ROW(A1048079),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A822:D826 A828:D835 A836:B840">
+  <conditionalFormatting sqref="A822:D826">
     <cfRule type="expression" dxfId="24" priority="31">
-      <formula>MOD(ROW(A1048163),2)=0</formula>
+      <formula>MOD(ROW(A1048164),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A843:D848">
@@ -16046,22 +16164,22 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:D198">
     <cfRule type="expression" dxfId="20" priority="560">
-      <formula>MOD(ROW(B1047582),2)=0</formula>
+      <formula>MOD(ROW(B1047583),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B374:D376">
     <cfRule type="expression" dxfId="19" priority="70">
-      <formula>MOD(ROW(B1047708),2)=0</formula>
+      <formula>MOD(ROW(B1047709),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B379:D379 A380:D404 A416:D424 A438:D438 A486:D499 A502:D502">
     <cfRule type="expression" dxfId="18" priority="424">
-      <formula>MOD(ROW(A1047712),2)=0</formula>
+      <formula>MOD(ROW(A1047713),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A157:D157">
     <cfRule type="expression" dxfId="17" priority="556">
-      <formula>MOD(ROW(A1047543),2)=0</formula>
+      <formula>MOD(ROW(A1047544),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D60">
@@ -16071,77 +16189,77 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B591">
     <cfRule type="expression" dxfId="15" priority="11">
-      <formula>MOD(ROW(B1047932),2)=0</formula>
+      <formula>MOD(ROW(B1047933),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A815:D815">
     <cfRule type="expression" dxfId="14" priority="594">
-      <formula>MOD(ROW(A1048153),2)=0</formula>
+      <formula>MOD(ROW(A1048154),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="13" priority="595">
-      <formula>MOD(ROW(A1047536),2)=0</formula>
+      <formula>MOD(ROW(A1047537),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241:D248 A236:D236">
     <cfRule type="expression" dxfId="12" priority="608">
-      <formula>MOD(ROW(A1047633),2)=0</formula>
+      <formula>MOD(ROW(A1047634),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152 C153:D155">
     <cfRule type="expression" dxfId="11" priority="609">
-      <formula>MOD(ROW(A1047540),2)=0</formula>
+      <formula>MOD(ROW(A1047541),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291:D291">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>MOD(ROW(A1047658),2)=0</formula>
+      <formula>MOD(ROW(A1047659),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292:B293">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MOD(ROW(B1047660),2)=0</formula>
+      <formula>MOD(ROW(B1047661),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:D314">
     <cfRule type="expression" dxfId="8" priority="8">
-      <formula>MOD(ROW(A1047661),2)=0</formula>
+      <formula>MOD(ROW(A1047662),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B315">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>MOD(ROW(B1047665),2)=0</formula>
+      <formula>MOD(ROW(B1047666),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B320">
     <cfRule type="expression" dxfId="6" priority="6">
-      <formula>MOD(ROW(B1047670),2)=0</formula>
+      <formula>MOD(ROW(B1047671),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B325">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>MOD(ROW(B1047675),2)=0</formula>
+      <formula>MOD(ROW(B1047676),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B330">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>MOD(ROW(B1047680),2)=0</formula>
+      <formula>MOD(ROW(B1047681),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B335">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>MOD(ROW(B1047685),2)=0</formula>
+      <formula>MOD(ROW(B1047686),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340">
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD(ROW(B1047690),2)=0</formula>
+      <formula>MOD(ROW(B1047691),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B345">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(B1047695),2)=0</formula>
+      <formula>MOD(ROW(B1047696),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:B135 D131:D135">
